--- a/results/VAE_HPO_annotation.xlsx
+++ b/results/VAE_HPO_annotation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhen/Documents/Manuscript/202406_ICBO_VDOS/LLM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhen/Documents/Ontology/VO-LLM/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E0FE1-2019-DA45-AB67-554AF228A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394BFCA-545C-4940-849A-EE81A13DDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1280" windowWidth="27240" windowHeight="16440" xr2:uid="{57111BEB-1D51-A948-BDED-73E2644AA070}"/>
+    <workbookView xWindow="1300" yWindow="1140" windowWidth="27240" windowHeight="16440" xr2:uid="{57111BEB-1D51-A948-BDED-73E2644AA070}"/>
   </bookViews>
   <sheets>
     <sheet name="VAE with HPO annotation" sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -724,14 +724,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,15 +1066,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0DABB6-BCDF-A342-A5C6-71EE6B95400D}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="78.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="78.5" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1167,7 +1165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1329,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
     </row>
